--- a/data/trans_orig/POLIPATOLOGIA_Lim_5-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_Lim_5-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>25892</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17253</v>
+        <v>17169</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38111</v>
+        <v>37639</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03680608688313532</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02452500886939848</v>
+        <v>0.02440665836315492</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05417543265808095</v>
+        <v>0.05350484974562605</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>58</v>
@@ -764,19 +764,19 @@
         <v>63640</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>48904</v>
+        <v>48519</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>79764</v>
+        <v>79518</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09129897672323578</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07015921619151054</v>
+        <v>0.06960637144636177</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1144315308012818</v>
+        <v>0.11407837100418</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>83</v>
@@ -785,19 +785,19 @@
         <v>89532</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>72776</v>
+        <v>71065</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>110043</v>
+        <v>110730</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06392765354431536</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05196353378997171</v>
+        <v>0.05074199646100485</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07857325058559685</v>
+        <v>0.07906387739399617</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>677577</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>665358</v>
+        <v>665830</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>686216</v>
+        <v>686300</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9631939131168646</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9458245673419201</v>
+        <v>0.9464951502543739</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9754749911306019</v>
+        <v>0.975593341636845</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>592</v>
@@ -835,19 +835,19 @@
         <v>633410</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>617286</v>
+        <v>617532</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>648146</v>
+        <v>648531</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9087010232767642</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8855684691987183</v>
+        <v>0.8859216289958201</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9298407838084896</v>
+        <v>0.9303936285536385</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1241</v>
@@ -856,19 +856,19 @@
         <v>1310987</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1290476</v>
+        <v>1289789</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1327743</v>
+        <v>1329454</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9360723464556846</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9214267494144025</v>
+        <v>0.9209361226060039</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9480364662100281</v>
+        <v>0.9492580035389951</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>33939</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23653</v>
+        <v>23056</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47946</v>
+        <v>46603</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03334083204348025</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02323641684303048</v>
+        <v>0.0226491867840067</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04710035378837897</v>
+        <v>0.04578134624635746</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>83</v>
@@ -981,19 +981,19 @@
         <v>90453</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>73559</v>
+        <v>71623</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>109081</v>
+        <v>111586</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08763257824613012</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07126512784495752</v>
+        <v>0.06938948049887349</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1056793880421569</v>
+        <v>0.1081063505106639</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>114</v>
@@ -1002,19 +1002,19 @@
         <v>124392</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>103992</v>
+        <v>102877</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>149081</v>
+        <v>146058</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06067521622899404</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05072452483659018</v>
+        <v>0.05018087710221589</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07271777961867495</v>
+        <v>0.07124325362630957</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>984008</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>970001</v>
+        <v>971344</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>994294</v>
+        <v>994891</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9666591679565197</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9528996462116212</v>
+        <v>0.9542186537536426</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9767635831569697</v>
+        <v>0.9773508132159934</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>857</v>
@@ -1052,19 +1052,19 @@
         <v>941731</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>923103</v>
+        <v>920598</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>958625</v>
+        <v>960561</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9123674217538699</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.894320611957843</v>
+        <v>0.8918936494893361</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9287348721550422</v>
+        <v>0.9306105195011265</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1762</v>
@@ -1073,19 +1073,19 @@
         <v>1925739</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1901050</v>
+        <v>1904073</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1946139</v>
+        <v>1947254</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9393247837710059</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9272822203813251</v>
+        <v>0.9287567463736904</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9492754751634098</v>
+        <v>0.9498191228977841</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>28081</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18483</v>
+        <v>19334</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42128</v>
+        <v>41494</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0370639960185002</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02439571309623186</v>
+        <v>0.02551984336123543</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05560561699925499</v>
+        <v>0.05476897569203135</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>60</v>
@@ -1198,19 +1198,19 @@
         <v>64675</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49706</v>
+        <v>50651</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>80837</v>
+        <v>80567</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08321830597014623</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06395770058857551</v>
+        <v>0.06517382053553623</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1040145187360601</v>
+        <v>0.1036665889133229</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>85</v>
@@ -1219,19 +1219,19 @@
         <v>92756</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>75158</v>
+        <v>74725</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>115284</v>
+        <v>113054</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06043511446566179</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04896934250621614</v>
+        <v>0.04868714494188276</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07511352432354239</v>
+        <v>0.07366036592570926</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>729542</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>715495</v>
+        <v>716129</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>739140</v>
+        <v>738289</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9629360039814998</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9443943830007451</v>
+        <v>0.9452310243079687</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9756042869037682</v>
+        <v>0.9744801566387646</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>645</v>
@@ -1269,19 +1269,19 @@
         <v>712499</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>696337</v>
+        <v>696607</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>727468</v>
+        <v>726523</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9167816940298538</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.89598548126394</v>
+        <v>0.8963334110866757</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9360422994114245</v>
+        <v>0.9348261794644637</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1309</v>
@@ -1290,19 +1290,19 @@
         <v>1442041</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1419513</v>
+        <v>1421743</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1459639</v>
+        <v>1460072</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9395648855343383</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9248864756764575</v>
+        <v>0.9263396340742908</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9510306574937838</v>
+        <v>0.9513128550581172</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>34395</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24091</v>
+        <v>23454</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47188</v>
+        <v>48956</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03629148323150597</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02541937007131785</v>
+        <v>0.0247468109425805</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04979006462076781</v>
+        <v>0.05165598103617846</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>102</v>
@@ -1415,19 +1415,19 @@
         <v>111266</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>91755</v>
+        <v>91638</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>135523</v>
+        <v>133073</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1057764282867154</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0872274378293779</v>
+        <v>0.08711610176179012</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1288364475807812</v>
+        <v>0.1265071670829166</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>133</v>
@@ -1436,19 +1436,19 @@
         <v>145661</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>122176</v>
+        <v>123756</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>171764</v>
+        <v>172555</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07284369756257453</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06109898185201813</v>
+        <v>0.06188890455441351</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0858973082063428</v>
+        <v>0.08629306951008228</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>913344</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>900551</v>
+        <v>898783</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>923648</v>
+        <v>924285</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.963708516768494</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9502099353792322</v>
+        <v>0.9483440189638216</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9745806299286821</v>
+        <v>0.9752531890574195</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>901</v>
@@ -1486,19 +1486,19 @@
         <v>940635</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>916378</v>
+        <v>918828</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>960146</v>
+        <v>960263</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8942235717132846</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8711635524192187</v>
+        <v>0.8734928329170834</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9127725621706221</v>
+        <v>0.9128838982382097</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1780</v>
@@ -1507,19 +1507,19 @@
         <v>1853979</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1827876</v>
+        <v>1827085</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1877464</v>
+        <v>1875884</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9271563024374255</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9141026917936576</v>
+        <v>0.9137069304899178</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9389010181479823</v>
+        <v>0.9381110954455865</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>122307</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>100470</v>
+        <v>101664</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>145436</v>
+        <v>146677</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03569140786482511</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0293191690276422</v>
+        <v>0.02966740725614496</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04244112331054225</v>
+        <v>0.04280307451096236</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>303</v>
@@ -1632,19 +1632,19 @@
         <v>330034</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>298484</v>
+        <v>296478</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>370216</v>
+        <v>369201</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0927503292991733</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08388368982408641</v>
+        <v>0.08331978283252692</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1040426853038572</v>
+        <v>0.1037574067795425</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>415</v>
@@ -1653,19 +1653,19 @@
         <v>452341</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>407585</v>
+        <v>411052</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>494220</v>
+        <v>495997</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06475808250246029</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05835079454340338</v>
+        <v>0.05884709394503927</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07075360078314137</v>
+        <v>0.07100795998374958</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>3304472</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3281343</v>
+        <v>3280102</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3326309</v>
+        <v>3325115</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9643085921351749</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9575588766894577</v>
+        <v>0.9571969254890377</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9706808309723578</v>
+        <v>0.9703325927438551</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2995</v>
@@ -1703,19 +1703,19 @@
         <v>3228275</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3188093</v>
+        <v>3189108</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3259825</v>
+        <v>3261831</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9072496707008267</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8959573146961428</v>
+        <v>0.8962425932204576</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9161163101759139</v>
+        <v>0.9166802171674731</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6092</v>
@@ -1724,19 +1724,19 @@
         <v>6532747</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6490868</v>
+        <v>6489091</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6577503</v>
+        <v>6574036</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9352419174975397</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9292463992168587</v>
+        <v>0.9289920400162504</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9416492054565967</v>
+        <v>0.9411529060549607</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>22172</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14827</v>
+        <v>15106</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33609</v>
+        <v>32658</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03285745238469536</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02197203408675973</v>
+        <v>0.02238519996865132</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04980550343080877</v>
+        <v>0.04839613653553382</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>65</v>
@@ -2089,19 +2089,19 @@
         <v>68226</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>53236</v>
+        <v>54721</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>84943</v>
+        <v>86906</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1014006547709879</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0791212848702869</v>
+        <v>0.0813282590988391</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1262455503646486</v>
+        <v>0.1291625664663937</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>88</v>
@@ -2110,19 +2110,19 @@
         <v>90399</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>73615</v>
+        <v>73340</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>111064</v>
+        <v>108054</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06707918363729412</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05462521263498889</v>
+        <v>0.05442116324060179</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08241346120780664</v>
+        <v>0.08018054088666292</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>652628</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>641191</v>
+        <v>642142</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>659973</v>
+        <v>659694</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9671425476153046</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9501944965691913</v>
+        <v>0.9516038634644662</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9780279659132404</v>
+        <v>0.9776148000313487</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>601</v>
@@ -2160,19 +2160,19 @@
         <v>604613</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>587896</v>
+        <v>585933</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>619603</v>
+        <v>618118</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8985993452290121</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8737544496353513</v>
+        <v>0.8708374335336064</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.920878715129713</v>
+        <v>0.9186717409011609</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1230</v>
@@ -2181,19 +2181,19 @@
         <v>1257240</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1236575</v>
+        <v>1239585</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1274024</v>
+        <v>1274299</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9329208163627059</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9175865387921937</v>
+        <v>0.9198194591133371</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9453747873650113</v>
+        <v>0.945578836759398</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>29882</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20330</v>
+        <v>21226</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41287</v>
+        <v>43121</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02922656946154057</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01988440698223187</v>
+        <v>0.02076023446741985</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04038077913287469</v>
+        <v>0.04217494367054435</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>71</v>
@@ -2306,19 +2306,19 @@
         <v>85475</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>69464</v>
+        <v>67209</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>108538</v>
+        <v>105141</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08195780653371962</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06660543570248946</v>
+        <v>0.06444380829463375</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1040715557451069</v>
+        <v>0.1008142639139564</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>102</v>
@@ -2327,19 +2327,19 @@
         <v>115357</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>95398</v>
+        <v>94704</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>138869</v>
+        <v>137651</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05585365575739494</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04619007942075623</v>
+        <v>0.04585409386561998</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06723763142689503</v>
+        <v>0.06664775866559892</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>992549</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>981144</v>
+        <v>979310</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1002101</v>
+        <v>1001205</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9707734305384594</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9596192208671253</v>
+        <v>0.9578250563294547</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9801155930177682</v>
+        <v>0.9792397655325801</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>906</v>
@@ -2377,19 +2377,19 @@
         <v>957438</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>934375</v>
+        <v>937772</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>973449</v>
+        <v>975704</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9180421934662804</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8959284442548932</v>
+        <v>0.8991857360860438</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9333945642975106</v>
+        <v>0.9355561917053663</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1826</v>
@@ -2398,19 +2398,19 @@
         <v>1949987</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1926475</v>
+        <v>1927693</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1969946</v>
+        <v>1970640</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.944146344242605</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9327623685731049</v>
+        <v>0.9333522413344008</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9538099205792436</v>
+        <v>0.9541459061343799</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>21089</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12794</v>
+        <v>13174</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32847</v>
+        <v>31750</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0277645305431787</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0168447050551189</v>
+        <v>0.0173446721001144</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04324508960693317</v>
+        <v>0.04180056887051434</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -2523,19 +2523,19 @@
         <v>60604</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>47454</v>
+        <v>46345</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>76668</v>
+        <v>77414</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07720173810992978</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06044983097253858</v>
+        <v>0.05903701655175248</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09766426199294197</v>
+        <v>0.09861503163152993</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -2544,19 +2544,19 @@
         <v>81693</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>65931</v>
+        <v>65306</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>101759</v>
+        <v>100458</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05289056463148973</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04268574813219373</v>
+        <v>0.04228092538116651</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06588178142798939</v>
+        <v>0.06503976431338503</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>738463</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>726705</v>
+        <v>727802</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>746758</v>
+        <v>746378</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9722354694568213</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9567549103930666</v>
+        <v>0.9581994311294856</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9831552949448811</v>
+        <v>0.9826553278998856</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>683</v>
@@ -2594,19 +2594,19 @@
         <v>724407</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>708343</v>
+        <v>707597</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>737557</v>
+        <v>738666</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9227982618900702</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.902335738007058</v>
+        <v>0.9013849683684704</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9395501690274614</v>
+        <v>0.9409629834482476</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1358</v>
@@ -2615,19 +2615,19 @@
         <v>1462870</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1442804</v>
+        <v>1444105</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1478632</v>
+        <v>1479257</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9471094353685102</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9341182185720105</v>
+        <v>0.934960235686615</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9573142518678061</v>
+        <v>0.9577190746188334</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>32946</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22169</v>
+        <v>21923</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46311</v>
+        <v>47202</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03514003914334748</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02364522572755738</v>
+        <v>0.02338315111894421</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04939506932829386</v>
+        <v>0.05034567062546151</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>88</v>
@@ -2740,19 +2740,19 @@
         <v>103360</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>83831</v>
+        <v>85110</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>125322</v>
+        <v>124140</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09902445726897126</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08031514117423878</v>
+        <v>0.08153981764384571</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1200653592423141</v>
+        <v>0.1189328409626402</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>120</v>
@@ -2761,19 +2761,19 @@
         <v>136306</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>115208</v>
+        <v>114036</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>162888</v>
+        <v>159217</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0687945419304587</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05814622302173821</v>
+        <v>0.05755493881331762</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08221097317417919</v>
+        <v>0.08035801676559357</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>904621</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>891256</v>
+        <v>890365</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>915398</v>
+        <v>915644</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9648599608566525</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.950604930671706</v>
+        <v>0.9496543293745385</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9763547742724425</v>
+        <v>0.9766168488810558</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>871</v>
@@ -2811,19 +2811,19 @@
         <v>940419</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>918457</v>
+        <v>919639</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>959948</v>
+        <v>958669</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9009755427310288</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.879934640757686</v>
+        <v>0.8810671590373598</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9196848588257612</v>
+        <v>0.9184601823561543</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1771</v>
@@ -2832,19 +2832,19 @@
         <v>1845040</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1818458</v>
+        <v>1822129</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1866138</v>
+        <v>1867310</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9312054580695414</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9177890268258208</v>
+        <v>0.9196419832344065</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9418537769782618</v>
+        <v>0.9424450611866824</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>106089</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>87174</v>
+        <v>86817</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>127739</v>
+        <v>128660</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03125461545646276</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02568218575988533</v>
+        <v>0.02557694606081206</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03763278333277601</v>
+        <v>0.03790416205872332</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>277</v>
@@ -2957,19 +2957,19 @@
         <v>317665</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>281508</v>
+        <v>285958</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>356520</v>
+        <v>357478</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08962089871253845</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07941999833897577</v>
+        <v>0.08067549804217462</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1005827362362935</v>
+        <v>0.1008531427641344</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>384</v>
@@ -2978,19 +2978,19 @@
         <v>423754</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>382532</v>
+        <v>386124</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>469086</v>
+        <v>466781</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06106942337186406</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05512866853029724</v>
+        <v>0.05564632527508136</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06760246055346841</v>
+        <v>0.06727032024133724</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>3288261</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3266611</v>
+        <v>3265690</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3307176</v>
+        <v>3307533</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9687453845435372</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.962367216667224</v>
+        <v>0.9620958379412766</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9743178142401151</v>
+        <v>0.9744230539391879</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3061</v>
@@ -3028,19 +3028,19 @@
         <v>3226877</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3188022</v>
+        <v>3187064</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3263034</v>
+        <v>3258584</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9103791012874616</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8994172637637066</v>
+        <v>0.8991468572358657</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9205800016610244</v>
+        <v>0.9193245019578256</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6185</v>
@@ -3049,19 +3049,19 @@
         <v>6515138</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6469806</v>
+        <v>6472111</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6556360</v>
+        <v>6552768</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9389305766281359</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9323975394465313</v>
+        <v>0.9327296797586631</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9448713314697027</v>
+        <v>0.9443536747249188</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>60978</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>48940</v>
+        <v>50086</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>76059</v>
+        <v>77266</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.088282825849785</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07085437426112896</v>
+        <v>0.07251445706435136</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1101172056872365</v>
+        <v>0.1118650854615294</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>261</v>
@@ -3414,19 +3414,19 @@
         <v>121706</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>107889</v>
+        <v>107594</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>136328</v>
+        <v>135576</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1657711482722735</v>
+        <v>0.1657711482722736</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1469518186504195</v>
+        <v>0.1465495612522369</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1856880634340911</v>
+        <v>0.184662847524942</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>349</v>
@@ -3435,19 +3435,19 @@
         <v>182684</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>162115</v>
+        <v>164002</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>202619</v>
+        <v>204050</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1282089863580975</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1137741016005312</v>
+        <v>0.1150980137026857</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1421999269982473</v>
+        <v>0.1432041446012294</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>629732</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>614651</v>
+        <v>613444</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>641770</v>
+        <v>640624</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9117171741502151</v>
+        <v>0.911717174150215</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8898827943127634</v>
+        <v>0.8881349145384705</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9291456257388711</v>
+        <v>0.9274855429356486</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>980</v>
@@ -3485,19 +3485,19 @@
         <v>612474</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>597852</v>
+        <v>598604</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>626291</v>
+        <v>626586</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8342288517277263</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8143119365659092</v>
+        <v>0.815337152475058</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8530481813495809</v>
+        <v>0.8534504387477631</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1622</v>
@@ -3506,19 +3506,19 @@
         <v>1242205</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1222270</v>
+        <v>1220839</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1262774</v>
+        <v>1260887</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8717910136419026</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8578000730017528</v>
+        <v>0.8567958553987706</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8862258983994689</v>
+        <v>0.8849019862973141</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>67438</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>53886</v>
+        <v>53658</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>82980</v>
+        <v>83994</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06429281565592147</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05137263634457002</v>
+        <v>0.05115537739201196</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07911017376009832</v>
+        <v>0.08007712922574538</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>262</v>
@@ -3631,19 +3631,19 @@
         <v>151950</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>135141</v>
+        <v>135039</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>170005</v>
+        <v>168807</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1418140601102427</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1261263349622773</v>
+        <v>0.1260311370065734</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1586649986974848</v>
+        <v>0.1575468883330982</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>353</v>
@@ -3652,19 +3652,19 @@
         <v>219388</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>196951</v>
+        <v>195730</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>242085</v>
+        <v>241061</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1034657813076511</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09288448488358166</v>
+        <v>0.09230863112307597</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1141701601857791</v>
+        <v>0.1136872024799753</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>981479</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>965937</v>
+        <v>964923</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>995031</v>
+        <v>995259</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9357071843440785</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9208898262399009</v>
+        <v>0.9199228707742545</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9486273636554298</v>
+        <v>0.948844622607988</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1255</v>
@@ -3702,19 +3702,19 @@
         <v>919524</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>901469</v>
+        <v>902667</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>936333</v>
+        <v>936435</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8581859398897573</v>
+        <v>0.8581859398897571</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8413350013025153</v>
+        <v>0.8424531116669017</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8738736650377228</v>
+        <v>0.8739688629934265</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2128</v>
@@ -3723,19 +3723,19 @@
         <v>1901003</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1878306</v>
+        <v>1879330</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1923440</v>
+        <v>1924661</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8965342186923488</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8858298398142209</v>
+        <v>0.8863127975200246</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9071155151164183</v>
+        <v>0.9076913688769238</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>50837</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38921</v>
+        <v>38630</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66829</v>
+        <v>66406</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.06330365285025039</v>
+        <v>0.06330365285025037</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04846456320573441</v>
+        <v>0.04810302950574594</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08321689064132062</v>
+        <v>0.08268963287364287</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>157</v>
@@ -3848,19 +3848,19 @@
         <v>104866</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>89288</v>
+        <v>88739</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>122225</v>
+        <v>121452</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.129104755259095</v>
+        <v>0.1291047552590949</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.109925179371011</v>
+        <v>0.1092491428431138</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1504755452652648</v>
+        <v>0.1495237589916217</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>211</v>
@@ -3869,19 +3869,19 @@
         <v>155704</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>134395</v>
+        <v>133145</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>177696</v>
+        <v>177712</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.09639129525384095</v>
+        <v>0.09639129525384098</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0831998405577478</v>
+        <v>0.08242553329682348</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1100061273714136</v>
+        <v>0.1100159381044629</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>752236</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>736244</v>
+        <v>736667</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>764152</v>
+        <v>764443</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9366963471497496</v>
+        <v>0.9366963471497497</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9167831093586792</v>
+        <v>0.9173103671263572</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9515354367942657</v>
+        <v>0.951896970494254</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>890</v>
@@ -3919,19 +3919,19 @@
         <v>707393</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>690034</v>
+        <v>690807</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>722971</v>
+        <v>723520</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.870895244740905</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8495244547347354</v>
+        <v>0.8504762410083784</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8900748206289891</v>
+        <v>0.8907508571568864</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1512</v>
@@ -3940,19 +3940,19 @@
         <v>1459628</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1437636</v>
+        <v>1437620</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1480937</v>
+        <v>1482187</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9036087047461591</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8899938726285864</v>
+        <v>0.8899840618955378</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9168001594422522</v>
+        <v>0.9175744667031768</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>67448</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54651</v>
+        <v>53467</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>82586</v>
+        <v>83850</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06812480981746409</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05520005957002908</v>
+        <v>0.0540032900107011</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08341455254541061</v>
+        <v>0.08469207891210345</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>288</v>
@@ -4065,19 +4065,19 @@
         <v>183144</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>163478</v>
+        <v>163807</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>205283</v>
+        <v>205792</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1636615940459114</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.146087739106507</v>
+        <v>0.1463819317333896</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1834452597690911</v>
+        <v>0.1839004846991095</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>379</v>
@@ -4086,19 +4086,19 @@
         <v>250592</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>228079</v>
+        <v>226572</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>275598</v>
+        <v>276613</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1188144083694152</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1081401957258759</v>
+        <v>0.107425700175541</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1306706742170304</v>
+        <v>0.131151907733072</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>922614</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>907476</v>
+        <v>906212</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>935411</v>
+        <v>936595</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.931875190182536</v>
+        <v>0.9318751901825358</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9165854474545894</v>
+        <v>0.9153079210878967</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9447999404299708</v>
+        <v>0.9459967099892989</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1274</v>
@@ -4136,19 +4136,19 @@
         <v>935897</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>913758</v>
+        <v>913249</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>955563</v>
+        <v>955234</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8363384059540887</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8165547402309088</v>
+        <v>0.8160995153008904</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.853912260893493</v>
+        <v>0.8536180682666105</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2189</v>
@@ -4157,19 +4157,19 @@
         <v>1858512</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1833506</v>
+        <v>1832491</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1881025</v>
+        <v>1882532</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8811855916305849</v>
+        <v>0.8811855916305847</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8693293257829696</v>
+        <v>0.8688480922669279</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.891859804274124</v>
+        <v>0.892574299824459</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>246701</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>219310</v>
+        <v>219764</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>276070</v>
+        <v>275125</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0698322980553981</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06207891310905875</v>
+        <v>0.06220729299400879</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07814568065289718</v>
+        <v>0.07787812515299075</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>968</v>
@@ -4282,19 +4282,19 @@
         <v>561666</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>527156</v>
+        <v>526640</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>596921</v>
+        <v>596512</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1503006139633613</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1410658195489462</v>
+        <v>0.1409276098055865</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1597347323928012</v>
+        <v>0.1596251596370064</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1292</v>
@@ -4303,19 +4303,19 @@
         <v>808367</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>762724</v>
+        <v>764156</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>853357</v>
+        <v>853744</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1111965556542035</v>
+        <v>0.1111965556542034</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1049180189398286</v>
+        <v>0.1051150004062586</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1173852099869415</v>
+        <v>0.1174383778172652</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>3286061</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3256692</v>
+        <v>3257637</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3313452</v>
+        <v>3312998</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9301677019446021</v>
+        <v>0.930167701944602</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9218543193471028</v>
+        <v>0.922121874847009</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9379210868909413</v>
+        <v>0.9377927070059912</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4399</v>
@@ -4353,19 +4353,19 @@
         <v>3175288</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3140033</v>
+        <v>3140442</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3209798</v>
+        <v>3210314</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8496993860366387</v>
+        <v>0.8496993860366386</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8402652676071979</v>
+        <v>0.8403748403629937</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8589341804510526</v>
+        <v>0.8590723901944137</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7451</v>
@@ -4374,19 +4374,19 @@
         <v>6461349</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6416359</v>
+        <v>6415972</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6506992</v>
+        <v>6505560</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8888034443457966</v>
+        <v>0.8888034443457963</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8826147900130583</v>
+        <v>0.8825616221827347</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8950819810601716</v>
+        <v>0.8948849995937415</v>
       </c>
     </row>
     <row r="18">
